--- a/Save/ORÇAMENTOS DO CASAMENTO.xlsx
+++ b/Save/ORÇAMENTOS DO CASAMENTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\BR-Depre\Save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3217A4F-0E2C-47C1-A64D-BBC96A32E188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F57C3F9-34EE-4099-AEC7-A96203E423E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12612" xr2:uid="{DFB29D51-9BE0-49DB-AEFE-E37C85BA0397}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14052" windowHeight="12336" xr2:uid="{DFB29D51-9BE0-49DB-AEFE-E37C85BA0397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">ORÇAMENTOS DO CASAMENTO - KEYTI E ELIAN 
 16 DE AGOSTO DE 2025
@@ -139,6 +137,9 @@
   </si>
   <si>
     <t>BUFFET</t>
+  </si>
+  <si>
+    <t>ORNAMENTAÇÃO FESTA</t>
   </si>
 </sst>
 </file>
@@ -179,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,8 +271,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,6 +309,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,46 +333,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,7 +683,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,547 +692,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="77.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8">
         <v>1500</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="9">
         <v>3600</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="9">
         <v>1500</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10">
-        <v>1800</v>
-      </c>
-      <c r="I7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8">
+        <v>2150</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24">
         <v>1500</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="16">
         <v>3300</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="16">
         <v>1500</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17">
         <v>2700</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17">
         <v>1500</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17">
         <v>120</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17">
         <v>9500</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="16">
         <v>4000</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="16">
         <v>700</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H36" s="7">
+      <c r="H36" s="20">
         <f>SUM(H3:I35)</f>
-        <v>33220</v>
-      </c>
-      <c r="I36" s="8"/>
+        <v>38770</v>
+      </c>
+      <c r="I36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="A12:C12"/>
@@ -1241,29 +1208,84 @@
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A20:C20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:I29"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
